--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL389\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5328" yWindow="4608" windowWidth="23088" windowHeight="9708" tabRatio="377"/>
+    <workbookView xWindow="5325" yWindow="4605" windowWidth="23085" windowHeight="9705" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>N00165</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +359,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -415,6 +424,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -794,22 +806,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
@@ -847,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -893,18 +905,18 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
     </row>
   </sheetData>
@@ -922,22 +934,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -999,7 +1011,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -1035,7 +1047,7 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1083,7 @@
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1107,7 +1119,7 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="12"/>
@@ -1127,7 +1139,7 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
     </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1170,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1189,7 +1201,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1220,7 +1232,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1251,7 +1263,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="12"/>
@@ -1266,7 +1278,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1293,7 +1305,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -1308,7 +1320,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
@@ -1335,7 +1347,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1350,7 +1362,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
@@ -1369,15 +1381,19 @@
       <c r="F16" s="16">
         <v>50167</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="27">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1392,7 +1408,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>30</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL389_00001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="4605" windowWidth="23085" windowHeight="9705" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="5325" yWindow="4605" windowWidth="23085" windowHeight="9705" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000358</t>
   </si>
 </sst>
 </file>
@@ -806,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1424,9 @@
       <c r="D18" s="12">
         <v>1</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="16">
         <v>389</v>
       </c>
